--- a/Question/FrameWorks/ReactNative/_I.xlsx
+++ b/Question/FrameWorks/ReactNative/_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\ReactNative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC635D8-9614-4A28-8686-549A90F91E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566EF4BF-DC40-4FDF-8A37-E52417E553A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
